--- a/other/数据字典.xlsx
+++ b/other/数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2023-2024\Learn\2024秋\java\library1\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5FCA9-9826-4875-8A86-E5E346AD3838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21665854-684C-4529-B487-43A7E2D3D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1950" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>数据字典-图书管理系统·数据库设计</t>
   </si>
@@ -66,12 +66,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>用户基本信息表</t>
-  </si>
-  <si>
-    <t>存储用户密码等之外的个人基本信息</t>
-  </si>
-  <si>
     <t>注册用户表(user_info)</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>是否为管理员</t>
   </si>
   <si>
-    <t>图书类型表(book)</t>
-  </si>
-  <si>
     <t>bid</t>
   </si>
   <si>
@@ -270,7 +261,11 @@
     <t>专业</t>
   </si>
   <si>
-    <t>用户基本信息(userInfoOther)</t>
+    <t>date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书类型表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +525,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,21 +552,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -892,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -908,121 +904,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>3</v>
@@ -1030,470 +1020,432 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
@@ -1504,11 +1456,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/数据字典.xlsx
+++ b/other/数据字典.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2023-2024\Learn\2024秋\java\library1\other\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21665854-684C-4529-B487-43A7E2D3D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>数据字典-图书管理系统·数据库设计</t>
   </si>
@@ -129,6 +125,54 @@
     <t>是否为管理员</t>
   </si>
   <si>
+    <t>ugender</t>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>ucontact</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>urealname</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>uaddress</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>宿舍地址</t>
+  </si>
+  <si>
+    <t>uemail</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
     <t>bid</t>
   </si>
   <si>
@@ -189,7 +233,7 @@
     <t>借阅信息表(borrow)</t>
   </si>
   <si>
-    <t>引用user_info(uid)，作为外键+主键</t>
+    <t>引用user_info(uid)，作为外键</t>
   </si>
   <si>
     <t>图书类型编号，外键，自动增长</t>
@@ -198,6 +242,9 @@
     <t>borrowtime</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>借阅时间</t>
   </si>
   <si>
@@ -213,67 +260,23 @@
     <t>借阅数量</t>
   </si>
   <si>
-    <t>ugender</t>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>ucontact</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>urealname</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>uaddress</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>宿舍地址</t>
-  </si>
-  <si>
-    <t>uemail</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书类型表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>borrowid</t>
+  </si>
+  <si>
+    <t>主键</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,20 +318,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +487,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -497,19 +823,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -525,45 +1120,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -583,7 +1199,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{71F0BCE4-E96A-48D6-BBC6-C6FD97A61067}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{25178A7D-E1D0-4FD1-B5B6-97AC03933A24}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -591,9 +1207,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -880,217 +1493,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.63716814159292" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.4513274336283" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4513274336283" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="56.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.8141592920354" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+    <row r="1" ht="20.15" customHeight="1" spans="2:6">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="20.15" customHeight="1" spans="2:6">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="20.15" customHeight="1" spans="2:6">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="17.65" spans="2:6">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="15" spans="2:6">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="15" spans="2:6">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" ht="15" spans="2:7">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+    <row r="8" ht="15" spans="2:6">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="15" spans="2:6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="12" ht="15" customHeight="1"/>
+    <row r="13" ht="14.65" spans="2:2">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
+    <row r="14" ht="15.4" spans="2:6">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="14.65" spans="2:6">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="14.65" spans="2:6">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="14.65" spans="2:6">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
+    <row r="18" ht="14.65" spans="2:6">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+    <row r="19" ht="14.65" spans="2:6">
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
+    <row r="20" ht="13.9" spans="2:6">
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1103,341 +1716,355 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="7" t="s">
+    <row r="21" ht="14.65" spans="2:6">
+      <c r="B21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="14.65" spans="2:6">
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="14.65" spans="2:6">
+      <c r="B23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="14.65" spans="2:6">
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" ht="14.65" spans="2:6">
+      <c r="B25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="14.65" spans="2:6">
+      <c r="B26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="14.6" spans="2:2">
+      <c r="B27" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="15.4" spans="2:6">
+      <c r="B28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="14.65" spans="2:6">
+      <c r="B29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" ht="14.65" spans="2:6">
+      <c r="B30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="14.65" spans="2:6">
+      <c r="B31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="14.65" spans="2:6">
+      <c r="B32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" ht="14.65" spans="2:6">
+      <c r="B33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="14.65" spans="2:6">
+      <c r="B34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+    </row>
+    <row r="35" ht="14.65" spans="2:6">
+      <c r="B35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="C35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="7" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="C36" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" ht="14.65" spans="2:2">
+      <c r="B37" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" ht="15.4" spans="2:6">
+      <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="7" t="s">
+    <row r="39" ht="14.65" spans="2:6">
+      <c r="B39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" ht="14.65" spans="2:6">
+      <c r="B40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" ht="14.65" spans="2:6">
+      <c r="B41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" ht="14.65" spans="2:6">
+      <c r="B42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" ht="14.65" spans="2:6">
+      <c r="B43" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" ht="14.65" spans="2:6">
+      <c r="B44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="8" t="s">
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1446,19 +2073,19 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>